--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-6.108911098752634</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.81920121594637</v>
+        <v>-10.94082015076775</v>
       </c>
       <c r="F2" t="n">
-        <v>5.539899772430867</v>
+        <v>5.530327096985448</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.87840382616123</v>
+        <v>-19.88411907518866</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.584674083489624</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.13758312113361</v>
+        <v>-11.24847068588211</v>
       </c>
       <c r="F3" t="n">
-        <v>5.560746497711393</v>
+        <v>5.546387484543263</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.2935612687134</v>
+        <v>-19.27940270482681</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.01895570772995</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.24253543154567</v>
+        <v>-11.3599204864203</v>
       </c>
       <c r="F4" t="n">
-        <v>5.394398039064612</v>
+        <v>5.393899360364186</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.50978991085766</v>
+        <v>-18.49758206071098</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.444577714923619</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.70306521138846</v>
+        <v>-11.82898647225272</v>
       </c>
       <c r="F5" t="n">
-        <v>5.703451719149773</v>
+        <v>5.70253747486566</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.95115243021649</v>
+        <v>-17.95176844508173</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.835911733369522</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.07359815282508</v>
+        <v>-12.18951650563963</v>
       </c>
       <c r="F6" t="n">
-        <v>5.561660741995506</v>
+        <v>5.579114496510392</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.50201403637362</v>
+        <v>-17.50851152649975</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.185048100991799</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.95263669848952</v>
+        <v>-13.07639212931173</v>
       </c>
       <c r="F7" t="n">
-        <v>5.653715852292647</v>
+        <v>5.662980520305451</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.62421729845337</v>
+        <v>-16.6305534513529</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.477429498317092</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.72764206703287</v>
+        <v>-13.84962767736927</v>
       </c>
       <c r="F8" t="n">
-        <v>5.850649937898848</v>
+        <v>5.861513311157133</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.23381543310962</v>
+        <v>-16.24674196726574</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.721364499246959</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.30251593947907</v>
+        <v>-14.41824851003268</v>
       </c>
       <c r="F9" t="n">
-        <v>5.99305204091148</v>
+        <v>6.017047286614298</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.19956794000688</v>
+        <v>-16.20168487998025</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9241969772251816</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.03592074859185</v>
+        <v>-15.14644652683219</v>
       </c>
       <c r="F10" t="n">
-        <v>6.326555644338083</v>
+        <v>6.352115372238314</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.48334310102444</v>
+        <v>-15.48480980308451</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1169914588950437</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.42793109719482</v>
+        <v>-15.53496123552532</v>
       </c>
       <c r="F11" t="n">
-        <v>6.226590120930274</v>
+        <v>6.249118664573017</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.8807094475879</v>
+        <v>-14.88007876570207</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6672534737848379</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.45125890252252</v>
+        <v>-16.55479828995005</v>
       </c>
       <c r="F12" t="n">
-        <v>6.677997013959398</v>
+        <v>6.707751509751442</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.5610808456496</v>
+        <v>-14.5808373223988</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>1.391929951454736</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.99058969504625</v>
+        <v>-17.11334776846761</v>
       </c>
       <c r="F13" t="n">
-        <v>6.91941128404079</v>
+        <v>6.962478545531444</v>
       </c>
       <c r="G13" t="n">
-        <v>-14.05996741980455</v>
+        <v>-14.08346398680695</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.019868220743477</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.32012577846256</v>
+        <v>-18.44711284282381</v>
       </c>
       <c r="F14" t="n">
-        <v>6.999791445939739</v>
+        <v>7.043039600684469</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.43322607350726</v>
+        <v>-13.46661310140142</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.533805165170533</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.48008430513429</v>
+        <v>-18.59797292771621</v>
       </c>
       <c r="F15" t="n">
-        <v>7.052441160889546</v>
+        <v>7.103477503573272</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.86058647719924</v>
+        <v>-12.88801380572264</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.924239076121332</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.70765526133423</v>
+        <v>-19.82961153762942</v>
       </c>
       <c r="F16" t="n">
-        <v>7.056337699362477</v>
+        <v>7.118173858215218</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.75528704729963</v>
+        <v>-12.78253837157581</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.20002761777556</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.73126174005334</v>
+        <v>-20.84608495532971</v>
       </c>
       <c r="F17" t="n">
-        <v>7.412208509205216</v>
+        <v>7.483558675420974</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.43536510494931</v>
+        <v>-12.45578159762555</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.378782501415889</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.43123063120329</v>
+        <v>-21.53019390820338</v>
       </c>
       <c r="F18" t="n">
-        <v>7.713087769808896</v>
+        <v>7.790285188237483</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.76180662889444</v>
+        <v>-11.77470382900936</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.481740252358825</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.13474894133862</v>
+        <v>-22.24552894793604</v>
       </c>
       <c r="F19" t="n">
-        <v>7.612696902803664</v>
+        <v>7.677554467900158</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.2182077333759</v>
+        <v>-11.23938691112338</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.535572677402032</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.95869326861979</v>
+        <v>-23.08789016408489</v>
       </c>
       <c r="F20" t="n">
-        <v>7.563743277045245</v>
+        <v>7.637234828268711</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.46591669073623</v>
+        <v>-10.48463669802965</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.559399343341636</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.83216812446969</v>
+        <v>-23.96826829763086</v>
       </c>
       <c r="F21" t="n">
-        <v>7.838275679643121</v>
+        <v>7.923143949845898</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.855920192958122</v>
+        <v>-9.876610470018905</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.572547634045417</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.24113354888712</v>
+        <v>-24.3811058154869</v>
       </c>
       <c r="F22" t="n">
-        <v>7.72070484250755</v>
+        <v>7.804257969863126</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.306835831734904</v>
+        <v>-9.324265141215456</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.584348923964524</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.89543422689322</v>
+        <v>-25.05373049123019</v>
       </c>
       <c r="F23" t="n">
-        <v>7.649271563175056</v>
+        <v>7.751207356350232</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.679053126974956</v>
+        <v>-8.677997101491702</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.602448177989273</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.39191287422843</v>
+        <v>-25.57329991799784</v>
       </c>
       <c r="F24" t="n">
-        <v>7.998664438919132</v>
+        <v>8.122082528267534</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.23496996623247</v>
+        <v>-8.23864649939639</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.629539206176313</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.61736942589621</v>
+        <v>-25.80664243774196</v>
       </c>
       <c r="F25" t="n">
-        <v>7.765908599999046</v>
+        <v>7.888989347873629</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.947809258897354</v>
+        <v>-7.966284815847426</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.661897812692275</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.81446973773589</v>
+        <v>-26.01625860716094</v>
       </c>
       <c r="F26" t="n">
-        <v>7.842089104999314</v>
+        <v>7.970009969672144</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.399086684182288</v>
+        <v>-7.431432353613797</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.695847896332204</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.70503909703373</v>
+        <v>-25.904652358403</v>
       </c>
       <c r="F27" t="n">
-        <v>7.845687414053364</v>
+        <v>7.971994906460111</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.191939463231101</v>
+        <v>-7.221517954775937</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.718260517422673</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.65110846228479</v>
+        <v>-25.85965882820678</v>
       </c>
       <c r="F28" t="n">
-        <v>7.618255703611347</v>
+        <v>7.744128074406939</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.137319478513928</v>
+        <v>-7.181168981103288</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.718805156088131</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.72759697471768</v>
+        <v>-25.95040368466359</v>
       </c>
       <c r="F29" t="n">
-        <v>7.311182071307286</v>
+        <v>7.424132796953622</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.744375329599372</v>
+        <v>-6.793876524126887</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.682660162160799</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.74947039144025</v>
+        <v>-25.98110664778781</v>
       </c>
       <c r="F30" t="n">
-        <v>7.252601991027912</v>
+        <v>7.354352001942146</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.986180720230119</v>
+        <v>-7.024231860675318</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.596202453036748</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.51995107506606</v>
+        <v>-25.74354980412442</v>
       </c>
       <c r="F31" t="n">
-        <v>7.469013879991901</v>
+        <v>7.567234027948222</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.007971023835959</v>
+        <v>-7.036141481403122</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.450379843986793</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.40433095167039</v>
+        <v>-25.64005930676556</v>
       </c>
       <c r="F32" t="n">
-        <v>7.331422559736314</v>
+        <v>7.419830470910737</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.012542245256524</v>
+        <v>-7.047464421306898</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>3.236244579075159</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.19426010461279</v>
+        <v>-25.42004421974066</v>
       </c>
       <c r="F33" t="n">
-        <v>7.280117321674909</v>
+        <v>7.366569630102566</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.04986981268542</v>
+        <v>-7.082435487425941</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.954902120801639</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.96005223065323</v>
+        <v>-25.2003322511415</v>
       </c>
       <c r="F34" t="n">
-        <v>7.358972113431379</v>
+        <v>7.43722555734322</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.843143046324788</v>
+        <v>-6.874696696643857</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.607891845364525</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.69659342860892</v>
+        <v>-24.91254575092742</v>
       </c>
       <c r="F35" t="n">
-        <v>7.729764172231944</v>
+        <v>7.803270390476009</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.260664232759325</v>
+        <v>-7.292139658968523</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.203979350641908</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.2170356340401</v>
+        <v>-24.43660093243325</v>
       </c>
       <c r="F36" t="n">
-        <v>7.786241979558545</v>
+        <v>7.856492119229245</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.433925747115924</v>
+        <v>-7.453579554720922</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.75256418853048</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.73264750068677</v>
+        <v>-23.95300481819235</v>
       </c>
       <c r="F37" t="n">
-        <v>7.841859321676569</v>
+        <v>7.908931606883775</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.362086680213475</v>
+        <v>-7.378249736915496</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.262048228317046</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16455956977185</v>
+        <v>-23.36484751408875</v>
       </c>
       <c r="F38" t="n">
-        <v>7.595174702192642</v>
+        <v>7.6573628695398</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.387841968388384</v>
+        <v>-7.414643504032811</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7455866622595583</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.64988403887798</v>
+        <v>-22.84191933960353</v>
       </c>
       <c r="F39" t="n">
-        <v>7.535049695743322</v>
+        <v>7.583240636430502</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.568671665374967</v>
+        <v>-7.600895109634803</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2107333220261527</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.26184356385094</v>
+        <v>-22.46551470091975</v>
       </c>
       <c r="F40" t="n">
-        <v>7.36253619943736</v>
+        <v>7.412448070541696</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.533822824427597</v>
+        <v>-7.557744735027412</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.3296873880515936</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.76983346879209</v>
+        <v>-21.96520307220088</v>
       </c>
       <c r="F41" t="n">
-        <v>7.563469492660698</v>
+        <v>7.587415848294848</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.989336483224929</v>
+        <v>-7.999349169288371</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.868042204914425</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.37296833637027</v>
+        <v>-21.55005305409679</v>
       </c>
       <c r="F42" t="n">
-        <v>7.540114706857445</v>
+        <v>7.565630433695874</v>
       </c>
       <c r="G42" t="n">
-        <v>-8.006824460787884</v>
+        <v>-8.039282577377334</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.398261231687985</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.04442218590671</v>
+        <v>-21.2313093624014</v>
       </c>
       <c r="F43" t="n">
-        <v>7.436140197818765</v>
+        <v>7.453745511546526</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.210295148575151</v>
+        <v>-8.240122979470199</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.910536509633535</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.14467380715402</v>
+        <v>-20.32251632094492</v>
       </c>
       <c r="F44" t="n">
-        <v>7.656184618884874</v>
+        <v>7.684780420049459</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.244405749485617</v>
+        <v>-8.270161037660523</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.402449233316737</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.32169261422563</v>
+        <v>-19.48692149029988</v>
       </c>
       <c r="F45" t="n">
-        <v>7.801001891289761</v>
+        <v>7.813595972978934</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.346649550093408</v>
+        <v>-8.371603041142142</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.864651428455351</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.97534558975964</v>
+        <v>-19.14356164902958</v>
       </c>
       <c r="F46" t="n">
-        <v>7.65283076017417</v>
+        <v>7.659592256671113</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.357596036468431</v>
+        <v>-8.380985045319752</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.29501585981163</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.68352076987349</v>
+        <v>-18.85675295018888</v>
       </c>
       <c r="F47" t="n">
-        <v>7.890920505586061</v>
+        <v>7.905792864475216</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.78744240921446</v>
+        <v>-8.803732580095021</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.691574641413014</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.8863535332024</v>
+        <v>-18.06716856316838</v>
       </c>
       <c r="F48" t="n">
-        <v>7.869883109037725</v>
+        <v>7.87738773457844</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.776559479928707</v>
+        <v>-8.77202248155621</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.051171156007538</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.37575543403554</v>
+        <v>-17.54274435258188</v>
       </c>
       <c r="F49" t="n">
-        <v>7.810789683037324</v>
+        <v>7.821692168350545</v>
       </c>
       <c r="G49" t="n">
-        <v>-9.028690453062378</v>
+        <v>-9.039006257551568</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.379312123733447</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.85746203806015</v>
+        <v>-17.03378407071544</v>
       </c>
       <c r="F50" t="n">
-        <v>7.718583013527309</v>
+        <v>7.712598869122205</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.615048602638955</v>
+        <v>-9.637019799498871</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.673830958184506</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.33012886838784</v>
+        <v>-16.48654775408792</v>
       </c>
       <c r="F51" t="n">
-        <v>7.717888774552207</v>
+        <v>7.728478363425944</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.800909087691595</v>
+        <v>-9.827011495354053</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.940862149206431</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.72171151982774</v>
+        <v>-15.87273294194674</v>
       </c>
       <c r="F52" t="n">
-        <v>7.623315825718604</v>
+        <v>7.628214610599253</v>
       </c>
       <c r="G52" t="n">
-        <v>-10.06647016268868</v>
+        <v>-10.06942801184316</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.182573214785402</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.50760724210494</v>
+        <v>-15.64322829259316</v>
       </c>
       <c r="F53" t="n">
-        <v>7.778708019976629</v>
+        <v>7.766089493253121</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.54094827912278</v>
+        <v>-10.54291365988328</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.398900349007883</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.04047730299181</v>
+        <v>-15.18585192217953</v>
       </c>
       <c r="F54" t="n">
-        <v>7.697227831532624</v>
+        <v>7.67889894478856</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.77915536069947</v>
+        <v>-10.77424190879822</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.595091167779562</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.55591805439814</v>
+        <v>-14.69142176872155</v>
       </c>
       <c r="F55" t="n">
-        <v>7.762613409370744</v>
+        <v>7.760198239978489</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.26940541328624</v>
+        <v>-11.27659714238747</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.765590808710096</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.30601646839578</v>
+        <v>-14.44572961763161</v>
       </c>
       <c r="F56" t="n">
-        <v>7.513186057034478</v>
+        <v>7.503408043300648</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.6551969451545</v>
+        <v>-11.66093663921625</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.914279086219463</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.07366152803878</v>
+        <v>-14.23234402391824</v>
       </c>
       <c r="F57" t="n">
-        <v>7.524083653340831</v>
+        <v>7.52248494809535</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.29017137901567</v>
+        <v>-12.30948295613999</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.038371069481143</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.69519861746403</v>
+        <v>-13.82114432336262</v>
       </c>
       <c r="F58" t="n">
-        <v>7.352029723680361</v>
+        <v>7.334546635124273</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.47701455444856</v>
+        <v>-12.49904441939088</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.134740435477735</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.51664230867056</v>
+        <v>-13.66241782642136</v>
       </c>
       <c r="F59" t="n">
-        <v>7.459661209855494</v>
+        <v>7.456483355391998</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.43334594511328</v>
+        <v>-12.43615712406175</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.206429081595324</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.89210101546338</v>
+        <v>-13.01635512498602</v>
       </c>
       <c r="F60" t="n">
-        <v>7.447336023544</v>
+        <v>7.43020494348233</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.5873203273799</v>
+        <v>-12.59493740007855</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.246215228787427</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.67458909995433</v>
+        <v>-12.77416350281279</v>
       </c>
       <c r="F61" t="n">
-        <v>7.190159595323673</v>
+        <v>7.204914618048023</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.72947309104232</v>
+        <v>-12.7264174617505</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.258643539705434</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.66630712232178</v>
+        <v>-12.76366191606265</v>
       </c>
       <c r="F62" t="n">
-        <v>7.390819104162464</v>
+        <v>7.387064346888673</v>
       </c>
       <c r="G62" t="n">
-        <v>-13.01756270968215</v>
+        <v>-13.01947431136711</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.240505870887418</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.67887675897662</v>
+        <v>-12.78475798069339</v>
       </c>
       <c r="F63" t="n">
-        <v>7.349203877711283</v>
+        <v>7.350035008878659</v>
       </c>
       <c r="G63" t="n">
-        <v>-13.05500272426898</v>
+        <v>-13.03809653852319</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.190333561664922</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.90540889215512</v>
+        <v>-13.01806627738944</v>
       </c>
       <c r="F64" t="n">
-        <v>7.190584938921095</v>
+        <v>7.181818949608717</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.3290266701527</v>
+        <v>-13.31064889333996</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.113353853719459</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.85405476402504</v>
+        <v>-12.9510722162921</v>
       </c>
       <c r="F65" t="n">
-        <v>7.379310381997746</v>
+        <v>7.374333373007227</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.39453936216936</v>
+        <v>-13.38306486305271</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.004883451374504</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.80097481647095</v>
+        <v>-12.88990096237326</v>
       </c>
       <c r="F66" t="n">
-        <v>7.113597747787785</v>
+        <v>7.107554935300278</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.62880101520446</v>
+        <v>-13.62294887398476</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.872817561815823</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.1715322029419</v>
+        <v>-13.26439399937208</v>
       </c>
       <c r="F67" t="n">
-        <v>7.116888049409219</v>
+        <v>7.112659058469338</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.66539034259645</v>
+        <v>-13.6408084160696</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.716977808603188</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.02432420617909</v>
+        <v>-13.11605175301615</v>
       </c>
       <c r="F68" t="n">
-        <v>7.206982667952728</v>
+        <v>7.207368899495214</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.60376441103898</v>
+        <v>-13.56083893074747</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.538572141315384</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.52101796981645</v>
+        <v>-13.62057281664744</v>
       </c>
       <c r="F69" t="n">
-        <v>7.271395333424333</v>
+        <v>7.27895862704745</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.25589690543739</v>
+        <v>-13.18428273285081</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.344106926320444</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.41212511986965</v>
+        <v>-13.51972727200358</v>
       </c>
       <c r="F70" t="n">
-        <v>7.419762024814601</v>
+        <v>7.423091438490969</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.26691672691541</v>
+        <v>-13.20366764507813</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.130312054302156</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.71122478197377</v>
+        <v>-13.81373747795925</v>
       </c>
       <c r="F71" t="n">
-        <v>7.270842875648371</v>
+        <v>7.272510026989988</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.12240746194314</v>
+        <v>-13.03218084021422</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.905524403192497</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.75335824315285</v>
+        <v>-13.86455870434083</v>
       </c>
       <c r="F72" t="n">
-        <v>7.295160795804406</v>
+        <v>7.308258445200871</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.35074363865554</v>
+        <v>-13.27283242522438</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.670064980560766</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.15723910042869</v>
+        <v>-14.26977914949821</v>
       </c>
       <c r="F73" t="n">
-        <v>7.424372358290101</v>
+        <v>7.436599764464256</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.3310653860162</v>
+        <v>-13.25192214285458</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.425699623148197</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.29618467558641</v>
+        <v>-14.41372617868078</v>
       </c>
       <c r="F74" t="n">
-        <v>7.293684315730598</v>
+        <v>7.304889919469566</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.29202666618389</v>
+        <v>-13.20125247568588</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.178784874364825</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.89235506194489</v>
+        <v>-15.01164194049075</v>
       </c>
       <c r="F75" t="n">
-        <v>7.400562894848226</v>
+        <v>7.420026031185413</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.36004252971641</v>
+        <v>-13.2562635809524</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.926932837061966</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.02648007633183</v>
+        <v>-15.1485439107781</v>
       </c>
       <c r="F76" t="n">
-        <v>7.465884915597075</v>
+        <v>7.487552994031243</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.46227655231047</v>
+        <v>-13.37646959278924</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.677209543187971</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.58792873592148</v>
+        <v>-15.70274706219098</v>
       </c>
       <c r="F77" t="n">
-        <v>7.480517713149752</v>
+        <v>7.501379105450878</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.1734095815788</v>
+        <v>-13.0828553963898</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.429021773148589</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94139904339256</v>
+        <v>-16.07475159469454</v>
       </c>
       <c r="F78" t="n">
-        <v>7.467312505602215</v>
+        <v>7.499076383216561</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.08045489401814</v>
+        <v>-12.96960644132458</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.182115281112934</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.960412391098</v>
+        <v>-16.07326533660699</v>
       </c>
       <c r="F79" t="n">
-        <v>7.633592518152859</v>
+        <v>7.649506235504667</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.8236353632991</v>
+        <v>-12.71378426800639</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.938310071788031</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.66884904214144</v>
+        <v>-16.80347273522881</v>
       </c>
       <c r="F80" t="n">
-        <v>7.637185938200042</v>
+        <v>7.665512843986947</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.63860112040697</v>
+        <v>-12.52275610269542</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.691646378058968</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.4485527462839</v>
+        <v>-17.60170577539688</v>
       </c>
       <c r="F81" t="n">
-        <v>7.749422868843808</v>
+        <v>7.777490657266767</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.22445823771747</v>
+        <v>-12.10176861039224</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.443107669551189</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.22620795654913</v>
+        <v>-18.38274417841401</v>
       </c>
       <c r="F82" t="n">
-        <v>7.816055143432992</v>
+        <v>7.848987493688531</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.16016290841067</v>
+        <v>-12.03112735017219</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.187494217305815</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.91940068418153</v>
+        <v>-19.07124834846104</v>
       </c>
       <c r="F83" t="n">
-        <v>7.963331586291938</v>
+        <v>7.9901428999501</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.29259632642166</v>
+        <v>-12.149534207482</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.921772527402986</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.90022835281514</v>
+        <v>-20.04193621685267</v>
       </c>
       <c r="F84" t="n">
-        <v>7.694030421041662</v>
+        <v>7.71919902839254</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.02282581651217</v>
+        <v>-11.88415891474586</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.647041948687413</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.96189574999319</v>
+        <v>-21.09490607081448</v>
       </c>
       <c r="F85" t="n">
-        <v>8.121647406656377</v>
+        <v>8.149416965660455</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.12755812161522</v>
+        <v>-12.00303022770803</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.362134693556654</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.01829768677557</v>
+        <v>-22.15378184507152</v>
       </c>
       <c r="F86" t="n">
-        <v>8.098033503489178</v>
+        <v>8.130912074669181</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.75876077761635</v>
+        <v>-11.62066588965348</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.074359706225756</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.95660566268762</v>
+        <v>-23.07738368832789</v>
       </c>
       <c r="F87" t="n">
-        <v>8.182940885746891</v>
+        <v>8.208485946626521</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.57728084271647</v>
+        <v>-11.44752660046855</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.7896923253863392</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.1520753997994</v>
+        <v>-24.26822842494357</v>
       </c>
       <c r="F88" t="n">
-        <v>8.210148208961272</v>
+        <v>8.245564174705205</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.68594390934052</v>
+        <v>-11.55580343555011</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.5165617985934368</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.54951978859717</v>
+        <v>-25.66605415627695</v>
       </c>
       <c r="F89" t="n">
-        <v>8.1378397973996</v>
+        <v>8.179039458267093</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.13851203243832</v>
+        <v>-11.01052761067622</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2674519637620293</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.02927060799945</v>
+        <v>-27.13562361887888</v>
       </c>
       <c r="F90" t="n">
-        <v>8.250497182633922</v>
+        <v>8.280623242947851</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.25412237782026</v>
+        <v>-11.12033470490713</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05086632905766021</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.75138905382217</v>
+        <v>-28.8557693504308</v>
       </c>
       <c r="F91" t="n">
-        <v>8.389457424812244</v>
+        <v>8.4246778302815</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.88674773481967</v>
+        <v>-10.77029648025662</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1215162428183185</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.59483553855769</v>
+        <v>-30.69260589788225</v>
       </c>
       <c r="F92" t="n">
-        <v>8.420913294993976</v>
+        <v>8.454212320764533</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.84707833310152</v>
+        <v>-10.72078550771538</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2399587244750336</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.11572735074505</v>
+        <v>-32.20066406704397</v>
       </c>
       <c r="F93" t="n">
-        <v>8.293246658678225</v>
+        <v>8.320390424803337</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.97173334118725</v>
+        <v>-10.85551186994695</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2978520270873665</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.12418515074925</v>
+        <v>-34.20395418678984</v>
       </c>
       <c r="F94" t="n">
-        <v>8.183688903797529</v>
+        <v>8.219784441495962</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.3261888744798</v>
+        <v>-10.20177342773055</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2881582320850301</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.35144311957193</v>
+        <v>-36.43380577375541</v>
       </c>
       <c r="F95" t="n">
-        <v>8.014133256646051</v>
+        <v>8.040338333452715</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.804746958082122</v>
+        <v>-9.686887669541404</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2047411418007732</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.24305609996029</v>
+        <v>-38.30193196515511</v>
       </c>
       <c r="F96" t="n">
-        <v>7.84470961267998</v>
+        <v>7.868861306602541</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.263406783736098</v>
+        <v>-9.149673816991056</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.05291795976007685</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.85219439515769</v>
+        <v>-40.91082581000917</v>
       </c>
       <c r="F97" t="n">
-        <v>7.546260188489158</v>
+        <v>7.578454298707793</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.868287026765765</v>
+        <v>-8.741143514184776</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1784955672978391</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.75573655230133</v>
+        <v>-42.79609041498085</v>
       </c>
       <c r="F98" t="n">
-        <v>7.276611903751331</v>
+        <v>7.307549539205168</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.332407873090085</v>
+        <v>-8.188974189628535</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4657277300820325</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.38823452230885</v>
+        <v>-45.41591607918932</v>
       </c>
       <c r="F99" t="n">
-        <v>6.888361201429014</v>
+        <v>6.945342576462908</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.991086747683285</v>
+        <v>-7.861454730607035</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.8337645792530183</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.70235303163257</v>
+        <v>-47.71577091097881</v>
       </c>
       <c r="F100" t="n">
-        <v>6.328692140338925</v>
+        <v>6.37183762593945</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.624416121671531</v>
+        <v>-7.49088756612235</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.22881998820728</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.82392167225799</v>
+        <v>-49.82931913583906</v>
       </c>
       <c r="F101" t="n">
-        <v>6.072522847533182</v>
+        <v>6.105215636452243</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.342242201340667</v>
+        <v>-7.198920965037056</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.721142889274704</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.88789781199116</v>
+        <v>-51.8887191651448</v>
       </c>
       <c r="F102" t="n">
-        <v>5.548963991162128</v>
+        <v>5.596827368389225</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.140018210304465</v>
+        <v>-6.987021629411228</v>
       </c>
     </row>
   </sheetData>
